--- a/src/main/resources/xlstmpl/multitmpl.xlsx
+++ b/src/main/resources/xlstmpl/multitmpl.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\javaProject\camunda-frame\src\main\resources\xlstmpl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\projects\camunda-frame\src\main\resources\xlstmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACBA321B-F80D-444A-AA86-4D56E47301CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2655" yWindow="720" windowWidth="15975" windowHeight="10080"/>
+    <workbookView xWindow="2595" yWindow="990" windowWidth="15975" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>hxyd_cong</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -69,11 +70,11 @@
             <charset val="134"/>
           </rPr>
           <t>")
-jx:each(items="pages",var="page",multisheet="page.sheetName",lastCell="E6")</t>
+jx:each(items="pager",var="page",multisheet="page.name",lastCell="E6")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A5" authorId="0" shapeId="0">
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -165,7 +166,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -609,11 +610,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
